--- a/fhir/ig/tei/0.2.1/StructureDefinition-ExtensionBoolAtencionPreferente.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ExtensionBoolAtencionPreferente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,7 +129,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ServiceRequestLE#ServiceRequest</t>
+    <t>element:ServiceRequest</t>
   </si>
   <si>
     <t>ID</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ExtensionBoolAtencionPreferente.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ExtensionBoolAtencionPreferente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ExtensionBoolAtencionPreferente.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ExtensionBoolAtencionPreferente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ExtensionBoolAtencionPreferente.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ExtensionBoolAtencionPreferente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ExtensionBoolAtencionPreferente.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ExtensionBoolAtencionPreferente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ExtensionBoolAtencionPreferente.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ExtensionBoolAtencionPreferente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ExtensionBoolAtencionPreferente.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ExtensionBoolAtencionPreferente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ExtensionBoolAtencionPreferente.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ExtensionBoolAtencionPreferente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ExtensionBoolAtencionPreferente.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ExtensionBoolAtencionPreferente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -664,42 +664,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.04296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.04296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.73046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="12.4765625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.60546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="20.3359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
